--- a/penilaian.xlsx
+++ b/penilaian.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MABAIZ\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\zen\rekap-tahfidz\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20895" windowHeight="11850"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620"/>
   </bookViews>
   <sheets>
     <sheet name="Hafalan Baru" sheetId="1" r:id="rId1"/>
@@ -19,10 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="37">
-  <si>
-    <t>Mutabaah Tahfidz Habis Maghrib</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="33">
   <si>
     <t>Nama :</t>
   </si>
@@ -99,37 +96,28 @@
     <t>Jayyid Jiddan</t>
   </si>
   <si>
-    <t>Salah 1 -2 kali</t>
-  </si>
-  <si>
-    <t>Februari nggak ada juziyah</t>
-  </si>
-  <si>
     <t>Jayyid</t>
   </si>
   <si>
     <t>Salah 3 - 4 kali</t>
   </si>
   <si>
-    <t>Murajaah seperempat juz</t>
-  </si>
-  <si>
     <t>Maqbul</t>
   </si>
   <si>
-    <t>Salah lebih dari 4 kali</t>
-  </si>
-  <si>
-    <t>Murajaah dimulai dari juz 30</t>
-  </si>
-  <si>
     <t>Rasib</t>
   </si>
   <si>
-    <t>Nggak sampai 1 halaman</t>
-  </si>
-  <si>
-    <t>Murajaah harian dan Murajaah Sabtu terpisah</t>
+    <t>Mutabaah Tahfidz</t>
+  </si>
+  <si>
+    <t>Salah 5 - 6 kali</t>
+  </si>
+  <si>
+    <t>Salah lebih dari 6 kali</t>
+  </si>
+  <si>
+    <t>Salah 1 - 2 kali</t>
   </si>
 </sst>
 </file>
@@ -242,7 +230,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -261,6 +249,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -270,29 +279,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -571,8 +562,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="H37" sqref="H37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -587,25 +578,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
+      <c r="A1" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -620,72 +611,72 @@
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="15" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
-      <c r="A5" s="8" t="s">
+      <c r="B5" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="C5" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="D5" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="E5" s="14"/>
+      <c r="F5" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="7"/>
-      <c r="F5" s="8" t="s">
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8" t="s">
+      <c r="L5" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="L5" s="7" t="s">
+      <c r="M5" s="14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="15"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="M5" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
-      <c r="A6" s="8"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="3" t="s">
+      <c r="E6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="F6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="G6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="H6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="I6" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I6" s="4" t="s">
+      <c r="J6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J6" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
+      <c r="K6" s="15"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="15"/>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
@@ -702,7 +693,7 @@
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -719,7 +710,7 @@
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
@@ -736,7 +727,7 @@
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -753,7 +744,7 @@
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
@@ -769,23 +760,23 @@
       <c r="M11" s="5"/>
     </row>
     <row r="12" spans="1:13">
-      <c r="A12" s="9"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="9"/>
-      <c r="L12" s="16"/>
-      <c r="M12" s="16"/>
+      <c r="A12" s="12"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="12"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
@@ -802,7 +793,7 @@
     </row>
     <row r="14" spans="1:13">
       <c r="A14" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
@@ -819,7 +810,7 @@
     </row>
     <row r="15" spans="1:13">
       <c r="A15" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
@@ -836,7 +827,7 @@
     </row>
     <row r="16" spans="1:13">
       <c r="A16" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
@@ -853,7 +844,7 @@
     </row>
     <row r="17" spans="1:13">
       <c r="A17" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
@@ -869,23 +860,23 @@
       <c r="M17" s="5"/>
     </row>
     <row r="18" spans="1:13">
-      <c r="A18" s="9"/>
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="9"/>
-      <c r="K18" s="9"/>
-      <c r="L18" s="16"/>
-      <c r="M18" s="16"/>
+      <c r="A18" s="12"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="12"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="6"/>
     </row>
     <row r="19" spans="1:13">
       <c r="A19" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
@@ -902,7 +893,7 @@
     </row>
     <row r="20" spans="1:13">
       <c r="A20" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
@@ -919,7 +910,7 @@
     </row>
     <row r="21" spans="1:13">
       <c r="A21" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
@@ -936,7 +927,7 @@
     </row>
     <row r="22" spans="1:13">
       <c r="A22" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
@@ -953,7 +944,7 @@
     </row>
     <row r="23" spans="1:13">
       <c r="A23" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
@@ -969,23 +960,23 @@
       <c r="M23" s="5"/>
     </row>
     <row r="24" spans="1:13">
-      <c r="A24" s="9"/>
-      <c r="B24" s="9"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="9"/>
-      <c r="J24" s="9"/>
-      <c r="K24" s="9"/>
-      <c r="L24" s="16"/>
-      <c r="M24" s="16"/>
+      <c r="A24" s="12"/>
+      <c r="B24" s="12"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="12"/>
+      <c r="J24" s="12"/>
+      <c r="K24" s="12"/>
+      <c r="L24" s="6"/>
+      <c r="M24" s="6"/>
     </row>
     <row r="25" spans="1:13">
       <c r="A25" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
@@ -1002,7 +993,7 @@
     </row>
     <row r="26" spans="1:13">
       <c r="A26" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
@@ -1019,7 +1010,7 @@
     </row>
     <row r="27" spans="1:13">
       <c r="A27" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
@@ -1036,7 +1027,7 @@
     </row>
     <row r="28" spans="1:13">
       <c r="A28" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
@@ -1053,7 +1044,7 @@
     </row>
     <row r="29" spans="1:13">
       <c r="A29" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
@@ -1069,23 +1060,23 @@
       <c r="M29" s="5"/>
     </row>
     <row r="30" spans="1:13">
-      <c r="A30" s="9"/>
-      <c r="B30" s="9"/>
-      <c r="C30" s="9"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="9"/>
-      <c r="F30" s="9"/>
-      <c r="G30" s="9"/>
-      <c r="H30" s="9"/>
-      <c r="I30" s="9"/>
-      <c r="J30" s="9"/>
-      <c r="K30" s="9"/>
-      <c r="L30" s="16"/>
-      <c r="M30" s="16"/>
+      <c r="A30" s="12"/>
+      <c r="B30" s="12"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="12"/>
+      <c r="I30" s="12"/>
+      <c r="J30" s="12"/>
+      <c r="K30" s="12"/>
+      <c r="L30" s="6"/>
+      <c r="M30" s="6"/>
     </row>
     <row r="31" spans="1:13">
       <c r="A31" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
@@ -1102,7 +1093,7 @@
     </row>
     <row r="32" spans="1:13">
       <c r="A32" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
@@ -1119,7 +1110,7 @@
     </row>
     <row r="33" spans="1:13">
       <c r="A33" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
@@ -1136,7 +1127,7 @@
     </row>
     <row r="34" spans="1:13">
       <c r="A34" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
@@ -1153,7 +1144,7 @@
     </row>
     <row r="35" spans="1:13">
       <c r="A35" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
@@ -1169,94 +1160,72 @@
       <c r="M35" s="5"/>
     </row>
     <row r="37" spans="1:13">
-      <c r="A37" s="10" t="s">
+      <c r="A37" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B37" s="8"/>
+      <c r="C37" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B37" s="11"/>
-      <c r="C37" s="12" t="s">
+      <c r="D37" s="9"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="9"/>
+      <c r="H37" t="s">
         <v>23</v>
       </c>
-      <c r="D37" s="12"/>
-      <c r="E37" s="12"/>
-      <c r="F37" s="12"/>
-      <c r="H37" t="s">
+    </row>
+    <row r="38" spans="1:13">
+      <c r="A38" s="7" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="38" spans="1:13">
-      <c r="A38" s="10" t="s">
+      <c r="B38" s="8"/>
+      <c r="C38" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="D38" s="9"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="9"/>
+    </row>
+    <row r="39" spans="1:13">
+      <c r="A39" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B38" s="11"/>
-      <c r="C38" s="12" t="s">
+      <c r="B39" s="8"/>
+      <c r="C39" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D38" s="12"/>
-      <c r="E38" s="12"/>
-      <c r="F38" s="12"/>
-      <c r="H38" t="s">
+      <c r="D39" s="9"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="9"/>
+    </row>
+    <row r="40" spans="1:13">
+      <c r="A40" s="7" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="39" spans="1:13">
-      <c r="A39" s="10" t="s">
+      <c r="B40" s="8"/>
+      <c r="C40" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="D40" s="9"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="9"/>
+    </row>
+    <row r="41" spans="1:13">
+      <c r="A41" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B39" s="11"/>
-      <c r="C39" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="D39" s="12"/>
-      <c r="E39" s="12"/>
-      <c r="F39" s="12"/>
-      <c r="H39" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13">
-      <c r="A40" s="10" t="s">
+      <c r="B41" s="8"/>
+      <c r="C41" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="B40" s="11"/>
-      <c r="C40" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="D40" s="12"/>
-      <c r="E40" s="12"/>
-      <c r="F40" s="12"/>
-      <c r="H40" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
-      <c r="A41" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="B41" s="11"/>
-      <c r="C41" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="D41" s="14"/>
-      <c r="E41" s="14"/>
-      <c r="F41" s="15"/>
-      <c r="H41" t="s">
-        <v>36</v>
-      </c>
+      <c r="D41" s="10"/>
+      <c r="E41" s="10"/>
+      <c r="F41" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="C39:F39"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="C40:F40"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="C41:F41"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="C37:F37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="C38:F38"/>
-    <mergeCell ref="A24:K24"/>
-    <mergeCell ref="A30:K30"/>
+    <mergeCell ref="A12:K12"/>
+    <mergeCell ref="A18:K18"/>
     <mergeCell ref="A1:M1"/>
     <mergeCell ref="D5:E5"/>
     <mergeCell ref="F5:J5"/>
@@ -1266,8 +1235,18 @@
     <mergeCell ref="K5:K6"/>
     <mergeCell ref="L5:L6"/>
     <mergeCell ref="M5:M6"/>
-    <mergeCell ref="A12:K12"/>
-    <mergeCell ref="A18:K18"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="C37:F37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C38:F38"/>
+    <mergeCell ref="A24:K24"/>
+    <mergeCell ref="A30:K30"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="C39:F39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="C40:F40"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="C41:F41"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>

--- a/penilaian.xlsx
+++ b/penilaian.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="35">
   <si>
     <t>Nama :</t>
   </si>
@@ -30,9 +30,6 @@
     <t>Hari</t>
   </si>
   <si>
-    <t>Tanggal</t>
-  </si>
-  <si>
     <t>Juz</t>
   </si>
   <si>
@@ -118,6 +115,15 @@
   </si>
   <si>
     <t>Salah 1 - 2 kali</t>
+  </si>
+  <si>
+    <t>Mad</t>
+  </si>
+  <si>
+    <t>Makhraj</t>
+  </si>
+  <si>
+    <t>Tgl</t>
   </si>
 </sst>
 </file>
@@ -164,7 +170,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -224,13 +230,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -252,6 +284,18 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -261,29 +305,23 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -560,41 +598,45 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M41"/>
+  <dimension ref="A1:O41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="H37" sqref="H37"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="8" customWidth="1"/>
+    <col min="2" max="2" width="4.7109375" customWidth="1"/>
     <col min="3" max="3" width="4.140625" customWidth="1"/>
     <col min="4" max="5" width="7.7109375" customWidth="1"/>
     <col min="6" max="10" width="3.7109375" customWidth="1"/>
-    <col min="11" max="11" width="6.140625" customWidth="1"/>
-    <col min="12" max="12" width="15.5703125" customWidth="1"/>
-    <col min="13" max="13" width="8.42578125" customWidth="1"/>
+    <col min="11" max="11" width="5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.140625" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" customWidth="1"/>
+    <col min="15" max="15" width="8.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
-      <c r="A1" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
-    </row>
-    <row r="2" spans="1:13">
+    <row r="1" spans="1:15">
+      <c r="A1" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -608,75 +650,85 @@
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
-      <c r="A5" s="15" t="s">
+    <row r="5" spans="1:15">
+      <c r="A5" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="D5" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="E5" s="9"/>
+      <c r="F5" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="14"/>
-      <c r="F5" s="15" t="s">
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="L5" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="M5" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="15"/>
-      <c r="K5" s="15" t="s">
+      <c r="N5" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="L5" s="14" t="s">
+      <c r="O5" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" s="10"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M5" s="14" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
-      <c r="A6" s="15"/>
-      <c r="B6" s="15"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="3" t="s">
+      <c r="E6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="F6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="G6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="H6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="I6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I6" s="4" t="s">
+      <c r="J6" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="J6" s="4" t="s">
+      <c r="K6" s="19"/>
+      <c r="L6" s="19"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="10"/>
+      <c r="O6" s="10"/>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" s="5" t="s">
         <v>15</v>
-      </c>
-      <c r="K6" s="15"/>
-      <c r="L6" s="15"/>
-      <c r="M6" s="15"/>
-    </row>
-    <row r="7" spans="1:13">
-      <c r="A7" s="5" t="s">
-        <v>16</v>
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
@@ -690,10 +742,12 @@
       <c r="K7" s="5"/>
       <c r="L7" s="5"/>
       <c r="M7" s="5"/>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -707,10 +761,12 @@
       <c r="K8" s="5"/>
       <c r="L8" s="5"/>
       <c r="M8" s="5"/>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
@@ -724,10 +780,12 @@
       <c r="K9" s="5"/>
       <c r="L9" s="5"/>
       <c r="M9" s="5"/>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -741,10 +799,12 @@
       <c r="K10" s="5"/>
       <c r="L10" s="5"/>
       <c r="M10" s="5"/>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
@@ -758,25 +818,29 @@
       <c r="K11" s="5"/>
       <c r="L11" s="5"/>
       <c r="M11" s="5"/>
-    </row>
-    <row r="12" spans="1:13">
-      <c r="A12" s="12"/>
-      <c r="B12" s="12"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="12"/>
-      <c r="K12" s="12"/>
-      <c r="L12" s="6"/>
-      <c r="M12" s="6"/>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="A12" s="7"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="6"/>
+      <c r="O12" s="6"/>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
@@ -790,10 +854,12 @@
       <c r="K13" s="5"/>
       <c r="L13" s="5"/>
       <c r="M13" s="5"/>
-    </row>
-    <row r="14" spans="1:13">
+      <c r="N13" s="5"/>
+      <c r="O13" s="5"/>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
@@ -807,10 +873,12 @@
       <c r="K14" s="5"/>
       <c r="L14" s="5"/>
       <c r="M14" s="5"/>
-    </row>
-    <row r="15" spans="1:13">
+      <c r="N14" s="5"/>
+      <c r="O14" s="5"/>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
@@ -824,10 +892,12 @@
       <c r="K15" s="5"/>
       <c r="L15" s="5"/>
       <c r="M15" s="5"/>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="N15" s="5"/>
+      <c r="O15" s="5"/>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
@@ -841,10 +911,12 @@
       <c r="K16" s="5"/>
       <c r="L16" s="5"/>
       <c r="M16" s="5"/>
-    </row>
-    <row r="17" spans="1:13">
+      <c r="N16" s="5"/>
+      <c r="O16" s="5"/>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
@@ -858,25 +930,29 @@
       <c r="K17" s="5"/>
       <c r="L17" s="5"/>
       <c r="M17" s="5"/>
-    </row>
-    <row r="18" spans="1:13">
-      <c r="A18" s="12"/>
-      <c r="B18" s="12"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="12"/>
-      <c r="I18" s="12"/>
-      <c r="J18" s="12"/>
-      <c r="K18" s="12"/>
-      <c r="L18" s="6"/>
-      <c r="M18" s="6"/>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="N17" s="5"/>
+      <c r="O17" s="5"/>
+    </row>
+    <row r="18" spans="1:15">
+      <c r="A18" s="7"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="7"/>
+      <c r="M18" s="7"/>
+      <c r="N18" s="6"/>
+      <c r="O18" s="6"/>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
@@ -890,10 +966,12 @@
       <c r="K19" s="5"/>
       <c r="L19" s="5"/>
       <c r="M19" s="5"/>
-    </row>
-    <row r="20" spans="1:13">
+      <c r="N19" s="5"/>
+      <c r="O19" s="5"/>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
@@ -907,10 +985,12 @@
       <c r="K20" s="5"/>
       <c r="L20" s="5"/>
       <c r="M20" s="5"/>
-    </row>
-    <row r="21" spans="1:13">
+      <c r="N20" s="5"/>
+      <c r="O20" s="5"/>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
@@ -924,10 +1004,12 @@
       <c r="K21" s="5"/>
       <c r="L21" s="5"/>
       <c r="M21" s="5"/>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21" s="5"/>
+      <c r="O21" s="5"/>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
@@ -941,10 +1023,12 @@
       <c r="K22" s="5"/>
       <c r="L22" s="5"/>
       <c r="M22" s="5"/>
-    </row>
-    <row r="23" spans="1:13">
+      <c r="N22" s="5"/>
+      <c r="O22" s="5"/>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
@@ -958,25 +1042,29 @@
       <c r="K23" s="5"/>
       <c r="L23" s="5"/>
       <c r="M23" s="5"/>
-    </row>
-    <row r="24" spans="1:13">
-      <c r="A24" s="12"/>
-      <c r="B24" s="12"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="12"/>
-      <c r="H24" s="12"/>
-      <c r="I24" s="12"/>
-      <c r="J24" s="12"/>
-      <c r="K24" s="12"/>
-      <c r="L24" s="6"/>
-      <c r="M24" s="6"/>
-    </row>
-    <row r="25" spans="1:13">
+      <c r="N23" s="5"/>
+      <c r="O23" s="5"/>
+    </row>
+    <row r="24" spans="1:15">
+      <c r="A24" s="7"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7"/>
+      <c r="L24" s="7"/>
+      <c r="M24" s="7"/>
+      <c r="N24" s="6"/>
+      <c r="O24" s="6"/>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
@@ -990,10 +1078,12 @@
       <c r="K25" s="5"/>
       <c r="L25" s="5"/>
       <c r="M25" s="5"/>
-    </row>
-    <row r="26" spans="1:13">
+      <c r="N25" s="5"/>
+      <c r="O25" s="5"/>
+    </row>
+    <row r="26" spans="1:15">
       <c r="A26" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
@@ -1007,10 +1097,12 @@
       <c r="K26" s="5"/>
       <c r="L26" s="5"/>
       <c r="M26" s="5"/>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="N26" s="5"/>
+      <c r="O26" s="5"/>
+    </row>
+    <row r="27" spans="1:15">
       <c r="A27" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
@@ -1024,10 +1116,12 @@
       <c r="K27" s="5"/>
       <c r="L27" s="5"/>
       <c r="M27" s="5"/>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="5"/>
+      <c r="O27" s="5"/>
+    </row>
+    <row r="28" spans="1:15">
       <c r="A28" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
@@ -1041,10 +1135,12 @@
       <c r="K28" s="5"/>
       <c r="L28" s="5"/>
       <c r="M28" s="5"/>
-    </row>
-    <row r="29" spans="1:13">
+      <c r="N28" s="5"/>
+      <c r="O28" s="5"/>
+    </row>
+    <row r="29" spans="1:15">
       <c r="A29" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
@@ -1058,25 +1154,29 @@
       <c r="K29" s="5"/>
       <c r="L29" s="5"/>
       <c r="M29" s="5"/>
-    </row>
-    <row r="30" spans="1:13">
-      <c r="A30" s="12"/>
-      <c r="B30" s="12"/>
-      <c r="C30" s="12"/>
-      <c r="D30" s="12"/>
-      <c r="E30" s="12"/>
-      <c r="F30" s="12"/>
-      <c r="G30" s="12"/>
-      <c r="H30" s="12"/>
-      <c r="I30" s="12"/>
-      <c r="J30" s="12"/>
-      <c r="K30" s="12"/>
-      <c r="L30" s="6"/>
-      <c r="M30" s="6"/>
-    </row>
-    <row r="31" spans="1:13">
+      <c r="N29" s="5"/>
+      <c r="O29" s="5"/>
+    </row>
+    <row r="30" spans="1:15">
+      <c r="A30" s="7"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="7"/>
+      <c r="I30" s="7"/>
+      <c r="J30" s="7"/>
+      <c r="K30" s="7"/>
+      <c r="L30" s="7"/>
+      <c r="M30" s="7"/>
+      <c r="N30" s="6"/>
+      <c r="O30" s="6"/>
+    </row>
+    <row r="31" spans="1:15">
       <c r="A31" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
@@ -1090,10 +1190,12 @@
       <c r="K31" s="5"/>
       <c r="L31" s="5"/>
       <c r="M31" s="5"/>
-    </row>
-    <row r="32" spans="1:13">
+      <c r="N31" s="5"/>
+      <c r="O31" s="5"/>
+    </row>
+    <row r="32" spans="1:15">
       <c r="A32" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
@@ -1107,10 +1209,12 @@
       <c r="K32" s="5"/>
       <c r="L32" s="5"/>
       <c r="M32" s="5"/>
-    </row>
-    <row r="33" spans="1:13">
+      <c r="N32" s="5"/>
+      <c r="O32" s="5"/>
+    </row>
+    <row r="33" spans="1:15">
       <c r="A33" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
@@ -1124,10 +1228,12 @@
       <c r="K33" s="5"/>
       <c r="L33" s="5"/>
       <c r="M33" s="5"/>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="5"/>
+      <c r="O33" s="5"/>
+    </row>
+    <row r="34" spans="1:15">
       <c r="A34" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
@@ -1141,10 +1247,12 @@
       <c r="K34" s="5"/>
       <c r="L34" s="5"/>
       <c r="M34" s="5"/>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="5"/>
+      <c r="O34" s="5"/>
+    </row>
+    <row r="35" spans="1:15">
       <c r="A35" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
@@ -1158,96 +1266,101 @@
       <c r="K35" s="5"/>
       <c r="L35" s="5"/>
       <c r="M35" s="5"/>
-    </row>
-    <row r="37" spans="1:13">
-      <c r="A37" s="7" t="s">
+      <c r="N35" s="5"/>
+      <c r="O35" s="5"/>
+    </row>
+    <row r="37" spans="1:15">
+      <c r="A37" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B37" s="12"/>
+      <c r="C37" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="B37" s="8"/>
-      <c r="C37" s="9" t="s">
+      <c r="D37" s="13"/>
+      <c r="E37" s="13"/>
+      <c r="F37" s="13"/>
+      <c r="H37" t="s">
         <v>22</v>
       </c>
-      <c r="D37" s="9"/>
-      <c r="E37" s="9"/>
-      <c r="F37" s="9"/>
-      <c r="H37" t="s">
+    </row>
+    <row r="38" spans="1:15">
+      <c r="A38" s="11" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="38" spans="1:13">
-      <c r="A38" s="7" t="s">
+      <c r="B38" s="12"/>
+      <c r="C38" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="D38" s="13"/>
+      <c r="E38" s="13"/>
+      <c r="F38" s="13"/>
+    </row>
+    <row r="39" spans="1:15">
+      <c r="A39" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="B38" s="8"/>
-      <c r="C38" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="D38" s="9"/>
-      <c r="E38" s="9"/>
-      <c r="F38" s="9"/>
-    </row>
-    <row r="39" spans="1:13">
-      <c r="A39" s="7" t="s">
+      <c r="B39" s="12"/>
+      <c r="C39" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="B39" s="8"/>
-      <c r="C39" s="9" t="s">
+      <c r="D39" s="13"/>
+      <c r="E39" s="13"/>
+      <c r="F39" s="13"/>
+    </row>
+    <row r="40" spans="1:15">
+      <c r="A40" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="D39" s="9"/>
-      <c r="E39" s="9"/>
-      <c r="F39" s="9"/>
-    </row>
-    <row r="40" spans="1:13">
-      <c r="A40" s="7" t="s">
+      <c r="B40" s="12"/>
+      <c r="C40" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D40" s="13"/>
+      <c r="E40" s="13"/>
+      <c r="F40" s="13"/>
+    </row>
+    <row r="41" spans="1:15">
+      <c r="A41" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="B40" s="8"/>
-      <c r="C40" s="16" t="s">
+      <c r="B41" s="12"/>
+      <c r="C41" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="D40" s="9"/>
-      <c r="E40" s="9"/>
-      <c r="F40" s="9"/>
-    </row>
-    <row r="41" spans="1:13">
-      <c r="A41" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="B41" s="8"/>
-      <c r="C41" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="D41" s="10"/>
-      <c r="E41" s="10"/>
-      <c r="F41" s="11"/>
+      <c r="D41" s="16"/>
+      <c r="E41" s="16"/>
+      <c r="F41" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="23">
-    <mergeCell ref="A12:K12"/>
-    <mergeCell ref="A18:K18"/>
-    <mergeCell ref="A1:M1"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:J5"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="L5:L6"/>
-    <mergeCell ref="M5:M6"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="C37:F37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="C38:F38"/>
-    <mergeCell ref="A24:K24"/>
-    <mergeCell ref="A30:K30"/>
+  <mergeCells count="25">
     <mergeCell ref="A39:B39"/>
     <mergeCell ref="C39:F39"/>
     <mergeCell ref="A40:B40"/>
     <mergeCell ref="C40:F40"/>
     <mergeCell ref="A41:B41"/>
     <mergeCell ref="C41:F41"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="C37:F37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C38:F38"/>
+    <mergeCell ref="A24:M24"/>
+    <mergeCell ref="A30:M30"/>
+    <mergeCell ref="A12:M12"/>
+    <mergeCell ref="A18:M18"/>
+    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:J5"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="N5:N6"/>
+    <mergeCell ref="O5:O6"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="L5:L6"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageSetup paperSize="9" scale="90" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/penilaian.xlsx
+++ b/penilaian.xlsx
@@ -19,14 +19,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="34">
   <si>
     <t>Nama :</t>
   </si>
   <si>
-    <t>Bulan :</t>
-  </si>
-  <si>
     <t>Hari</t>
   </si>
   <si>
@@ -87,9 +84,6 @@
     <t>Nggak ada salah</t>
   </si>
   <si>
-    <t>Ditegasin diulang 20 kali</t>
-  </si>
-  <si>
     <t>Jayyid Jiddan</t>
   </si>
   <si>
@@ -124,6 +118,9 @@
   </si>
   <si>
     <t>Tgl</t>
+  </si>
+  <si>
+    <t>Bulan &amp; Tahun :</t>
   </si>
 </sst>
 </file>
@@ -262,7 +259,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -284,6 +281,27 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -296,32 +314,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -600,8 +600,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -618,23 +618,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
-      <c r="A1" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
-      <c r="O1" s="8"/>
+      <c r="A1" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="15"/>
     </row>
     <row r="2" spans="1:15">
       <c r="A2" s="1" t="s">
@@ -654,81 +654,81 @@
       <c r="M2" s="2"/>
     </row>
     <row r="3" spans="1:15">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="20" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" s="17" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
-      <c r="A5" s="10" t="s">
+      <c r="B5" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="C5" s="10" t="s">
+      <c r="D5" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="E5" s="16"/>
+      <c r="F5" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="9"/>
-      <c r="F5" s="10" t="s">
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="L5" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="M5" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="L5" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="M5" s="10" t="s">
+      <c r="N5" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="N5" s="9" t="s">
+      <c r="O5" s="16" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" s="17"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="O5" s="9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
-      <c r="A6" s="10"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="3" t="s">
+      <c r="E6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="F6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="G6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="H6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="I6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="4" t="s">
+      <c r="J6" s="4" t="s">
         <v>13</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>14</v>
       </c>
       <c r="K6" s="19"/>
       <c r="L6" s="19"/>
-      <c r="M6" s="10"/>
-      <c r="N6" s="10"/>
-      <c r="O6" s="10"/>
+      <c r="M6" s="17"/>
+      <c r="N6" s="17"/>
+      <c r="O6" s="17"/>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
@@ -747,7 +747,7 @@
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -766,7 +766,7 @@
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
@@ -785,7 +785,7 @@
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -804,7 +804,7 @@
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
@@ -822,25 +822,25 @@
       <c r="O11" s="5"/>
     </row>
     <row r="12" spans="1:15">
-      <c r="A12" s="7"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
-      <c r="L12" s="7"/>
-      <c r="M12" s="7"/>
+      <c r="A12" s="14"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="14"/>
+      <c r="M12" s="14"/>
       <c r="N12" s="6"/>
       <c r="O12" s="6"/>
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
@@ -859,7 +859,7 @@
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
@@ -878,7 +878,7 @@
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
@@ -897,7 +897,7 @@
     </row>
     <row r="16" spans="1:15">
       <c r="A16" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
@@ -916,7 +916,7 @@
     </row>
     <row r="17" spans="1:15">
       <c r="A17" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
@@ -934,25 +934,25 @@
       <c r="O17" s="5"/>
     </row>
     <row r="18" spans="1:15">
-      <c r="A18" s="7"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
-      <c r="J18" s="7"/>
-      <c r="K18" s="7"/>
-      <c r="L18" s="7"/>
-      <c r="M18" s="7"/>
+      <c r="A18" s="14"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="14"/>
+      <c r="K18" s="14"/>
+      <c r="L18" s="14"/>
+      <c r="M18" s="14"/>
       <c r="N18" s="6"/>
       <c r="O18" s="6"/>
     </row>
     <row r="19" spans="1:15">
       <c r="A19" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
@@ -971,7 +971,7 @@
     </row>
     <row r="20" spans="1:15">
       <c r="A20" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
@@ -990,7 +990,7 @@
     </row>
     <row r="21" spans="1:15">
       <c r="A21" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
@@ -1009,7 +1009,7 @@
     </row>
     <row r="22" spans="1:15">
       <c r="A22" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
@@ -1028,7 +1028,7 @@
     </row>
     <row r="23" spans="1:15">
       <c r="A23" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
@@ -1046,25 +1046,25 @@
       <c r="O23" s="5"/>
     </row>
     <row r="24" spans="1:15">
-      <c r="A24" s="7"/>
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
-      <c r="I24" s="7"/>
-      <c r="J24" s="7"/>
-      <c r="K24" s="7"/>
-      <c r="L24" s="7"/>
-      <c r="M24" s="7"/>
+      <c r="A24" s="14"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="14"/>
+      <c r="J24" s="14"/>
+      <c r="K24" s="14"/>
+      <c r="L24" s="14"/>
+      <c r="M24" s="14"/>
       <c r="N24" s="6"/>
       <c r="O24" s="6"/>
     </row>
     <row r="25" spans="1:15">
       <c r="A25" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
@@ -1083,7 +1083,7 @@
     </row>
     <row r="26" spans="1:15">
       <c r="A26" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
@@ -1102,7 +1102,7 @@
     </row>
     <row r="27" spans="1:15">
       <c r="A27" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
@@ -1121,7 +1121,7 @@
     </row>
     <row r="28" spans="1:15">
       <c r="A28" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
@@ -1140,7 +1140,7 @@
     </row>
     <row r="29" spans="1:15">
       <c r="A29" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
@@ -1158,25 +1158,25 @@
       <c r="O29" s="5"/>
     </row>
     <row r="30" spans="1:15">
-      <c r="A30" s="7"/>
-      <c r="B30" s="7"/>
-      <c r="C30" s="7"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="7"/>
-      <c r="G30" s="7"/>
-      <c r="H30" s="7"/>
-      <c r="I30" s="7"/>
-      <c r="J30" s="7"/>
-      <c r="K30" s="7"/>
-      <c r="L30" s="7"/>
-      <c r="M30" s="7"/>
+      <c r="A30" s="14"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="14"/>
+      <c r="H30" s="14"/>
+      <c r="I30" s="14"/>
+      <c r="J30" s="14"/>
+      <c r="K30" s="14"/>
+      <c r="L30" s="14"/>
+      <c r="M30" s="14"/>
       <c r="N30" s="6"/>
       <c r="O30" s="6"/>
     </row>
     <row r="31" spans="1:15">
       <c r="A31" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
@@ -1195,7 +1195,7 @@
     </row>
     <row r="32" spans="1:15">
       <c r="A32" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
@@ -1214,7 +1214,7 @@
     </row>
     <row r="33" spans="1:15">
       <c r="A33" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
@@ -1233,7 +1233,7 @@
     </row>
     <row r="34" spans="1:15">
       <c r="A34" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
@@ -1252,7 +1252,7 @@
     </row>
     <row r="35" spans="1:15">
       <c r="A35" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
@@ -1270,82 +1270,67 @@
       <c r="O35" s="5"/>
     </row>
     <row r="37" spans="1:15">
-      <c r="A37" s="11" t="s">
+      <c r="A37" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B37" s="8"/>
+      <c r="C37" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="B37" s="12"/>
-      <c r="C37" s="13" t="s">
+      <c r="D37" s="9"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="9"/>
+    </row>
+    <row r="38" spans="1:15">
+      <c r="A38" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D37" s="13"/>
-      <c r="E37" s="13"/>
-      <c r="F37" s="13"/>
-      <c r="H37" t="s">
+      <c r="B38" s="8"/>
+      <c r="C38" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D38" s="9"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="9"/>
+    </row>
+    <row r="39" spans="1:15">
+      <c r="A39" s="7" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="38" spans="1:15">
-      <c r="A38" s="11" t="s">
+      <c r="B39" s="8"/>
+      <c r="C39" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B38" s="12"/>
-      <c r="C38" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="D38" s="13"/>
-      <c r="E38" s="13"/>
-      <c r="F38" s="13"/>
-    </row>
-    <row r="39" spans="1:15">
-      <c r="A39" s="11" t="s">
+      <c r="D39" s="9"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="9"/>
+    </row>
+    <row r="40" spans="1:15">
+      <c r="A40" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B39" s="12"/>
-      <c r="C39" s="13" t="s">
+      <c r="B40" s="8"/>
+      <c r="C40" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D40" s="9"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="9"/>
+    </row>
+    <row r="41" spans="1:15">
+      <c r="A41" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D39" s="13"/>
-      <c r="E39" s="13"/>
-      <c r="F39" s="13"/>
-    </row>
-    <row r="40" spans="1:15">
-      <c r="A40" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="B40" s="12"/>
-      <c r="C40" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="D40" s="13"/>
-      <c r="E40" s="13"/>
-      <c r="F40" s="13"/>
-    </row>
-    <row r="41" spans="1:15">
-      <c r="A41" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="B41" s="12"/>
-      <c r="C41" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="D41" s="16"/>
-      <c r="E41" s="16"/>
-      <c r="F41" s="17"/>
+      <c r="B41" s="8"/>
+      <c r="C41" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D41" s="12"/>
+      <c r="E41" s="12"/>
+      <c r="F41" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="C39:F39"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="C40:F40"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="C41:F41"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="C37:F37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="C38:F38"/>
-    <mergeCell ref="A24:M24"/>
-    <mergeCell ref="A30:M30"/>
     <mergeCell ref="A12:M12"/>
     <mergeCell ref="A18:M18"/>
     <mergeCell ref="A1:O1"/>
@@ -1359,8 +1344,20 @@
     <mergeCell ref="O5:O6"/>
     <mergeCell ref="K5:K6"/>
     <mergeCell ref="L5:L6"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="C37:F37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C38:F38"/>
+    <mergeCell ref="A24:M24"/>
+    <mergeCell ref="A30:M30"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="C39:F39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="C40:F40"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="C41:F41"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
-  <pageSetup paperSize="9" scale="90" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="91" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>